--- a/sistemaaid/frontend/src/assets/files/Plantilla_Instrumento.xlsx
+++ b/sistemaaid/frontend/src/assets/files/Plantilla_Instrumento.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Codigo</t>
   </si>
@@ -38,10 +38,13 @@
     <t>ListaCodigo</t>
   </si>
   <si>
-    <t>PRUEBA</t>
-  </si>
-  <si>
-    <t>Numerico</t>
+    <t>PRUEBA PARA CODIFICAR</t>
+  </si>
+  <si>
+    <t>Cadena</t>
+  </si>
+  <si>
+    <t>P17</t>
   </si>
 </sst>
 </file>
@@ -362,7 +365,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,8 +385,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1010</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -392,7 +395,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
